--- a/data/trans_dic/P44-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P44-Clase-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.1787906104816862</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.5076947726249447</v>
+        <v>0.5076947726249446</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2329104211275155</v>
@@ -655,7 +655,7 @@
         <v>0.1013836343315583</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.4270164531864654</v>
+        <v>0.4270164531864655</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1700986206047913</v>
@@ -664,7 +664,7 @@
         <v>0.1488118997521598</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4739981153705891</v>
+        <v>0.4739981153705892</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08636551609746501</v>
+        <v>0.08780114124868754</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1228054541138086</v>
+        <v>0.1254492174412535</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4519789944972732</v>
+        <v>0.4533310268901014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1305822987508348</v>
+        <v>0.1303980220349938</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04521403005516329</v>
+        <v>0.04704337631150616</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3746046487651956</v>
+        <v>0.3761209026410044</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1176627190019865</v>
+        <v>0.1117608668226859</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1069914228012385</v>
+        <v>0.1056640800707787</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4348226483228273</v>
+        <v>0.4324814732050618</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2209502586704586</v>
+        <v>0.2305098566440904</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2563377362274665</v>
+        <v>0.2483825019939421</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5624924701204307</v>
+        <v>0.5646280590769832</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.362634586543608</v>
+        <v>0.378622426372794</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1750371781541541</v>
+        <v>0.1806006142798569</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4825989740345777</v>
+        <v>0.4835323573889826</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2346319096558385</v>
+        <v>0.2355297016366519</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1967295791486933</v>
+        <v>0.197645393992671</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5126318381521793</v>
+        <v>0.5135591437869818</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.05530989324819537</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.347969427448792</v>
+        <v>0.3479694274487919</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1143627691310602</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0636720627172192</v>
+        <v>0.0668019735001274</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1323015977004277</v>
+        <v>0.12637398491904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3029707024005929</v>
+        <v>0.3049292166436427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05446741887292207</v>
+        <v>0.05688902804672891</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02128851663957906</v>
+        <v>0.02051025953426229</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2917849272135395</v>
+        <v>0.2894915300636505</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.074527245493915</v>
+        <v>0.07376707127681968</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09258289553147968</v>
+        <v>0.09469977875441139</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3151809982323772</v>
+        <v>0.3159370796256657</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1787599818328373</v>
+        <v>0.17204978965752</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2659602872687972</v>
+        <v>0.261268735802416</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4221119950397792</v>
+        <v>0.4158683857995008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2350982128946817</v>
+        <v>0.2373921489783214</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1144471810551664</v>
+        <v>0.1224950450906743</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4137325189180855</v>
+        <v>0.4031721474523793</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1714766128560753</v>
+        <v>0.1714843260678845</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1808113264453669</v>
+        <v>0.1840250905701308</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.397334604895361</v>
+        <v>0.3966227543001657</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07644835866254211</v>
+        <v>0.07611187436475644</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07565973802935834</v>
+        <v>0.07487341560034229</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.330513576233043</v>
+        <v>0.3264601214323363</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04284158880339838</v>
+        <v>0.04839748396807157</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03816776962267666</v>
+        <v>0.03669519823347581</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2663099037733574</v>
+        <v>0.2640043375626006</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.074108697600353</v>
+        <v>0.07419629962274799</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07647364520472874</v>
+        <v>0.07458557625483962</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3252953282665366</v>
+        <v>0.3229089115606671</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1708100388938471</v>
+        <v>0.1661091832113706</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1601505503016838</v>
+        <v>0.1544876937276292</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4442005606550865</v>
+        <v>0.4448010015078504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1617259899617644</v>
+        <v>0.1721514782324737</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1702707595719817</v>
+        <v>0.166561002745597</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4008992596793636</v>
+        <v>0.3987314738271373</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1511169786012798</v>
+        <v>0.1484025798247257</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.141145328806523</v>
+        <v>0.1412607395157683</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4098331622988945</v>
+        <v>0.4112853051659494</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05803387154746247</v>
+        <v>0.05980383675389859</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07284785343142082</v>
+        <v>0.07703887455823753</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2846734400256482</v>
+        <v>0.2881368095195353</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04522484736942633</v>
+        <v>0.04289079144665534</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06035515320999136</v>
+        <v>0.05919459595903501</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2533106962786438</v>
+        <v>0.2503976200988732</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06197505036354781</v>
+        <v>0.06125562575603734</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.07704670531607559</v>
+        <v>0.07611931463366753</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2808797180322343</v>
+        <v>0.2812018830348497</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1145861293471616</v>
+        <v>0.118524806211027</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1243283273353982</v>
+        <v>0.1270106517977487</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3560113043374608</v>
+        <v>0.358618824181606</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1268509931291653</v>
+        <v>0.1224652234358144</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1411809246467966</v>
+        <v>0.1413423188375591</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3240621840566112</v>
+        <v>0.3256836534731964</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1053242925464185</v>
+        <v>0.1070614268791181</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1185666711250162</v>
+        <v>0.12012811525354</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3354535708145471</v>
+        <v>0.3350905230388444</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.07751767318397695</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.2639490863943021</v>
+        <v>0.263949086394302</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.06648284932067548</v>
@@ -1100,7 +1100,7 @@
         <v>0.08330570837420777</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.272275800470908</v>
+        <v>0.2722758004709081</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0224866364317858</v>
+        <v>0.02286733172883047</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06319117244710713</v>
+        <v>0.06018329657295641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2356576323576525</v>
+        <v>0.2401610177349371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05134783295849012</v>
+        <v>0.04901275509701278</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05183718309323342</v>
+        <v>0.05363409247825602</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2346415160656873</v>
+        <v>0.235255006908367</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04956503703791137</v>
+        <v>0.0468591687516945</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06456057816366957</v>
+        <v>0.06268893705393762</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2459664119884299</v>
+        <v>0.2434586867027113</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.09025386284423559</v>
+        <v>0.09332427412605179</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1307325583610416</v>
+        <v>0.1276305298900626</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3383949097007257</v>
+        <v>0.3425922293897846</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.108867822795483</v>
+        <v>0.1062757929429117</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.11160203901407</v>
+        <v>0.1129239659050226</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3003601731302543</v>
+        <v>0.2949851626989654</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09467498384827695</v>
+        <v>0.09225884227398773</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1060002065353688</v>
+        <v>0.1074912069196481</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2980112719531031</v>
+        <v>0.3003458471064638</v>
       </c>
     </row>
     <row r="19">
@@ -1222,25 +1222,25 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.135947871239948</v>
+        <v>0.1320454556616981</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03635993766544332</v>
+        <v>0.03603142806059915</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04412909306040645</v>
+        <v>0.04362517423908551</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2498044728107841</v>
+        <v>0.2494545763052814</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03563410532908919</v>
+        <v>0.0354582859054119</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04404088562992386</v>
+        <v>0.04225700573164534</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2527585152708265</v>
+        <v>0.252757065077449</v>
       </c>
     </row>
     <row r="21">
@@ -1253,25 +1253,25 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.5881736630307476</v>
+        <v>0.6457443225182489</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07333277524653817</v>
+        <v>0.06922851360723359</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08470509267442755</v>
+        <v>0.08304937863129006</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3130472488549901</v>
+        <v>0.3146173774159224</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.069922080604315</v>
+        <v>0.07225792063293394</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08300031928704375</v>
+        <v>0.0843976706171357</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3130763760135976</v>
+        <v>0.3146661256160628</v>
       </c>
     </row>
     <row r="22">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.100437406987514</v>
+        <v>0.1021267067254365</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3409760179098965</v>
+        <v>0.3417296195610068</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06017512372464873</v>
+        <v>0.0613953479930586</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06099894710791551</v>
+        <v>0.06074693291618789</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.286978111270815</v>
+        <v>0.2870123310931124</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07281293270447117</v>
+        <v>0.07324577104444993</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.0840363448753335</v>
+        <v>0.08340242252880632</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3175274511839009</v>
+        <v>0.3188945602548544</v>
       </c>
     </row>
     <row r="24">
@@ -1356,31 +1356,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1358437185188737</v>
+        <v>0.1372587987703761</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.386641610541522</v>
+        <v>0.3863341594734701</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08894069014316558</v>
+        <v>0.09125858483448013</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.09055403387546</v>
+        <v>0.08906356632293784</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.321371552997765</v>
+        <v>0.3195899698919604</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0965006051594775</v>
+        <v>0.09620231963133334</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1063244601452261</v>
+        <v>0.1057945558310943</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3458900267114888</v>
+        <v>0.3453420618553313</v>
       </c>
     </row>
     <row r="25">
@@ -1611,31 +1611,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12076</v>
+        <v>12277</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21250</v>
+        <v>21707</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>122617</v>
+        <v>122984</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7498</v>
+        <v>7488</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4945</v>
+        <v>5145</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>72889</v>
+        <v>73184</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>23209</v>
+        <v>22045</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30215</v>
+        <v>29840</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>202569</v>
+        <v>201478</v>
       </c>
     </row>
     <row r="7">
@@ -1646,31 +1646,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30895</v>
+        <v>32231</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>44356</v>
+        <v>42979</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>152598</v>
+        <v>153177</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20823</v>
+        <v>21741</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19144</v>
+        <v>19753</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93903</v>
+        <v>94084</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46281</v>
+        <v>46458</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>55558</v>
+        <v>55817</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>238818</v>
+        <v>239250</v>
       </c>
     </row>
     <row r="8">
@@ -1755,31 +1755,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9337</v>
+        <v>9796</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18979</v>
+        <v>18129</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>71999</v>
+        <v>72464</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3698</v>
+        <v>3863</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2046</v>
+        <v>1971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>46558</v>
+        <v>46192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15990</v>
+        <v>15827</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22180</v>
+        <v>22687</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>125192</v>
+        <v>125492</v>
       </c>
     </row>
     <row r="11">
@@ -1790,31 +1790,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26215</v>
+        <v>25231</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38153</v>
+        <v>37480</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>100312</v>
+        <v>98828</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>15963</v>
+        <v>16119</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11000</v>
+        <v>11774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>66016</v>
+        <v>64331</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36790</v>
+        <v>36792</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43317</v>
+        <v>44087</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>157824</v>
+        <v>157541</v>
       </c>
     </row>
     <row r="12">
@@ -1899,31 +1899,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19600</v>
+        <v>19514</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20255</v>
+        <v>20044</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>78441</v>
+        <v>77479</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5068</v>
+        <v>5725</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3109</v>
+        <v>2989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>29274</v>
+        <v>29021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27767</v>
+        <v>27800</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26701</v>
+        <v>26042</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>112960</v>
+        <v>112132</v>
       </c>
     </row>
     <row r="15">
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>43793</v>
+        <v>42587</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>42874</v>
+        <v>41358</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>105422</v>
+        <v>105565</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>19132</v>
+        <v>20366</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13868</v>
+        <v>13565</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>44069</v>
+        <v>43831</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>56621</v>
+        <v>55604</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49281</v>
+        <v>49322</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>142317</v>
+        <v>142821</v>
       </c>
     </row>
     <row r="16">
@@ -2043,31 +2043,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26534</v>
+        <v>27343</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38941</v>
+        <v>41181</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>155879</v>
+        <v>157775</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8876</v>
+        <v>8418</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>15447</v>
+        <v>15150</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>82307</v>
+        <v>81360</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>40499</v>
+        <v>40029</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>60905</v>
+        <v>60172</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>245066</v>
+        <v>245347</v>
       </c>
     </row>
     <row r="19">
@@ -2078,31 +2078,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>52390</v>
+        <v>54191</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>66460</v>
+        <v>67894</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>194941</v>
+        <v>196369</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24897</v>
+        <v>24036</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>36134</v>
+        <v>36175</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>105296</v>
+        <v>105823</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68827</v>
+        <v>69963</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>93726</v>
+        <v>94961</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>292682</v>
+        <v>292365</v>
       </c>
     </row>
     <row r="20">
@@ -2187,31 +2187,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4271</v>
+        <v>4344</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17239</v>
+        <v>16419</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>61053</v>
+        <v>62220</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>18436</v>
+        <v>17598</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19765</v>
+        <v>20450</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>107227</v>
+        <v>107507</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>27211</v>
+        <v>25725</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>42229</v>
+        <v>41005</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>176126</v>
+        <v>174331</v>
       </c>
     </row>
     <row r="23">
@@ -2222,31 +2222,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>17143</v>
+        <v>17726</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>35666</v>
+        <v>34819</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>87670</v>
+        <v>88757</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39088</v>
+        <v>38158</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42553</v>
+        <v>43057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>137259</v>
+        <v>134803</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>51976</v>
+        <v>50649</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>69335</v>
+        <v>70311</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>213393</v>
+        <v>215065</v>
       </c>
     </row>
     <row r="24">
@@ -2333,22 +2333,22 @@
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>1558</v>
+        <v>1513</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>24120</v>
+        <v>23902</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>29196</v>
+        <v>28862</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>118347</v>
+        <v>118181</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>23782</v>
+        <v>23665</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>29388</v>
+        <v>28198</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>122642</v>
@@ -2364,25 +2364,25 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>6739</v>
+        <v>7398</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>48647</v>
+        <v>45924</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>56041</v>
+        <v>54945</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>148309</v>
+        <v>149052</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>46666</v>
+        <v>48225</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>55386</v>
+        <v>56319</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>151909</v>
+        <v>152681</v>
       </c>
     </row>
     <row r="28">
@@ -2467,31 +2467,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>140338</v>
+        <v>142698</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>533411</v>
+        <v>534590</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>87994</v>
+        <v>89779</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>96730</v>
+        <v>96330</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>493525</v>
+        <v>493584</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>193417</v>
+        <v>194567</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>250683</v>
+        <v>248792</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1042791</v>
+        <v>1047280</v>
       </c>
     </row>
     <row r="31">
@@ -2502,31 +2502,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>189810</v>
+        <v>191787</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>604848</v>
+        <v>604367</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>130059</v>
+        <v>133448</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>143597</v>
+        <v>141234</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>552673</v>
+        <v>549609</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>256340</v>
+        <v>255547</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>317169</v>
+        <v>315588</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1135936</v>
+        <v>1134136</v>
       </c>
     </row>
     <row r="32">
